--- a/pcs_num_trans/jp_user.xlsx
+++ b/pcs_num_trans/jp_user.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\coms\Desktop\git clone\pcs_num_trans\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hanaseo\Desktop\gitclone\translation_api\pcs_num_trans\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20C43C46-DD86-4A3C-99BD-10905CEB68AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{92FF1781-000C-4376-8179-0761D9605F0B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
   <si>
     <t>Hooded</t>
   </si>
@@ -42,9 +41,6 @@
   <si>
     <t>T-shirt</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Hoodie</t>
   </si>
   <si>
     <r>
@@ -75,11 +71,16 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Burton</t>
+    <t>e</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>j</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
-      <t>バ</t>
+      <t>トゥル</t>
     </r>
     <r>
       <rPr>
@@ -101,26 +102,22 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t>トン</t>
+      <t>ブラック</t>
     </r>
   </si>
   <si>
-    <t>HOODIE</t>
-  </si>
-  <si>
-    <t>e</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>j</t>
+    <t>True Black</t>
+  </si>
+  <si>
+    <t>TRUE BLACK</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -143,6 +140,12 @@
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -167,8 +170,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -484,21 +490,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{972CB819-EB99-4996-845A-1C302E59F641}">
-  <dimension ref="A1:B7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="V7" sqref="V6:W7"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -506,7 +512,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -526,27 +532,19 @@
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>5</v>
+      <c r="A5" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>7</v>
+      <c r="A6" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="B6" t="s">
         <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" t="s">
-        <v>6</v>
       </c>
     </row>
   </sheetData>
